--- a/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_Clinical_SLRType_StudyDesign.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/LiveSLRPage/NonOnco_Clinical_SLRType_StudyDesign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\LiveSLRPage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE45459-3CA6-49A3-897B-850EEA7A7FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7A416-1C47-4962-84F3-F2416874BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,55 +151,55 @@
     <t>study_design_section1_1_checkbox</t>
   </si>
   <si>
+    <t>study_design_section3</t>
+  </si>
+  <si>
+    <t>study_design_section3_checkbox</t>
+  </si>
+  <si>
+    <t>ExpectedSourceTemplateFile</t>
+  </si>
+  <si>
+    <t>reported_variable_section4</t>
+  </si>
+  <si>
+    <t>reported_variable_section4_checkbox</t>
+  </si>
+  <si>
+    <t>reported_variable_section</t>
+  </si>
+  <si>
+    <t>StudyDesignExpectedValue</t>
+  </si>
+  <si>
+    <t>ReportedVarExpectedValue</t>
+  </si>
+  <si>
+    <t>ExpectedFilenames</t>
+  </si>
+  <si>
+    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>study_design_section2_1</t>
+  </si>
+  <si>
+    <t>study_design_section2_1_checkbox</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\StudyDesign_Section\ExpectedData\Expected_TestData_with_Clinical_Int.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\StudyDesign_Section\ExpectedData\Expected_TestData_with_Clinical_Int_and_Rwe.xlsx</t>
+  </si>
+  <si>
     <t>study_design_section2</t>
   </si>
   <si>
-    <t>study_design_section3</t>
-  </si>
-  <si>
-    <t>study_design_section3_checkbox</t>
-  </si>
-  <si>
     <t>study_design_section2_checkbox</t>
-  </si>
-  <si>
-    <t>ExpectedSourceTemplateFile</t>
-  </si>
-  <si>
-    <t>reported_variable_section4</t>
-  </si>
-  <si>
-    <t>reported_variable_section4_checkbox</t>
-  </si>
-  <si>
-    <t>reported_variable_section</t>
-  </si>
-  <si>
-    <t>StudyDesignExpectedValue</t>
-  </si>
-  <si>
-    <t>ReportedVarExpectedValue</t>
-  </si>
-  <si>
-    <t>ExpectedFilenames</t>
-  </si>
-  <si>
-    <t>CompleteExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-LIVEHTA Automation-Test_NonOncology_Automation_2-Clinical-2023_</t>
-  </si>
-  <si>
-    <t>study_design_section2_1</t>
-  </si>
-  <si>
-    <t>study_design_section2_1_checkbox</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\StudyDesign_Section\ExpectedData\Expected_TestData_with_Clinical_Int.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Non_Oncology\Templates\StudyDesign_Section\ExpectedData\Expected_TestData_with_Clinical_Int_and_Rwe.xlsx</t>
   </si>
 </sst>
 </file>
@@ -528,9 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,13 +579,13 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
         <v>22</v>
@@ -594,7 +594,7 @@
         <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -641,10 +641,10 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -667,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -678,13 +678,13 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
         <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>25</v>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -730,22 +730,22 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
         <v>26</v>
@@ -768,7 +768,7 @@
         <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -779,16 +779,16 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
         <v>28</v>
@@ -799,13 +799,13 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
         <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
